--- a/assets/Classique.xlsx
+++ b/assets/Classique.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA335E2-E7CD-4286-89D6-9A69D451117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB96C8DA-5F79-4C60-85D5-BAC364CA1D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="25" activeTab="55" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-grille2022_ESC-58" sheetId="60" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="640">
   <si>
     <t>Column1</t>
   </si>
@@ -948,9 +948,6 @@
   </si>
   <si>
     <t>SCIPR</t>
-  </si>
-  <si>
-    <t>Analyse et modélisation</t>
   </si>
   <si>
     <t>AMINF</t>
@@ -3877,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" t="s">
         <v>603</v>
-      </c>
-      <c r="F2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,10 +3894,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3942,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>605</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>606</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3965,13 +3962,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>607</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>608</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -3991,10 +3988,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -4011,10 +4008,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -4031,10 +4028,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" t="s">
         <v>611</v>
-      </c>
-      <c r="D10" t="s">
-        <v>612</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -4051,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4065,13 +4062,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>586</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>587</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
@@ -4097,10 +4094,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4157,10 +4154,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4177,21 +4174,21 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>394</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -4251,7 +4248,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -4291,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -4305,13 +4302,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>614</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>615</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -4325,13 +4322,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>616</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>617</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -4345,13 +4342,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>601</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>602</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -4365,13 +4362,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>617</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>618</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>619</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -4385,7 +4382,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -4445,13 +4442,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>281</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -4485,13 +4482,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>621</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>622</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>623</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -4559,13 +4556,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" t="s">
         <v>457</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>458</v>
-      </c>
-      <c r="F1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,13 +4573,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4621,10 +4618,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
         <v>370</v>
-      </c>
-      <c r="B5" t="s">
-        <v>371</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4644,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4661,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
         <v>180</v>
@@ -4678,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -4692,10 +4689,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>378</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -4726,10 +4723,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
         <v>379</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4749,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
@@ -4766,7 +4763,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -4783,7 +4780,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
         <v>180</v>
@@ -4797,10 +4794,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
         <v>384</v>
-      </c>
-      <c r="B15" t="s">
-        <v>385</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4820,7 +4817,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -4837,7 +4834,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -4854,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -4868,10 +4865,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -4888,7 +4885,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4905,7 +4902,7 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -4936,10 +4933,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
         <v>392</v>
-      </c>
-      <c r="B23" t="s">
-        <v>393</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" t="s">
         <v>394</v>
-      </c>
-      <c r="B24" t="s">
-        <v>395</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -4973,7 +4970,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -5038,10 +5035,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
         <v>397</v>
-      </c>
-      <c r="B29" t="s">
-        <v>398</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -5058,10 +5055,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" t="s">
         <v>399</v>
-      </c>
-      <c r="B30" t="s">
-        <v>400</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -5078,7 +5075,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -5092,10 +5089,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" t="s">
         <v>402</v>
-      </c>
-      <c r="B32" t="s">
-        <v>403</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -5158,10 +5155,10 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5200,10 +5197,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" t="s">
         <v>455</v>
-      </c>
-      <c r="E1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5214,10 +5211,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,10 +5233,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5256,7 +5253,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5270,7 +5267,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5284,7 +5281,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -5295,10 +5292,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
         <v>375</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -5309,10 +5306,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
         <v>377</v>
-      </c>
-      <c r="B9" t="s">
-        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
         <v>379</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5343,7 +5340,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -5357,7 +5354,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -5371,7 +5368,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -5382,10 +5379,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" t="s">
         <v>384</v>
-      </c>
-      <c r="B14" t="s">
-        <v>385</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -5402,7 +5399,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -5416,7 +5413,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -5427,10 +5424,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -5444,7 +5441,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -5458,7 +5455,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -5469,10 +5466,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" t="s">
-        <v>408</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5489,7 +5486,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -5503,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -5612,10 +5609,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
         <v>432</v>
-      </c>
-      <c r="B30" t="s">
-        <v>433</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -5629,7 +5626,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -5674,7 +5671,7 @@
         <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -5685,10 +5682,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" t="s">
         <v>435</v>
-      </c>
-      <c r="B35" t="s">
-        <v>436</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -5699,7 +5696,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -5713,10 +5710,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
         <v>426</v>
-      </c>
-      <c r="B37" t="s">
-        <v>427</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5806,13 +5803,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" t="s">
         <v>452</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>453</v>
-      </c>
-      <c r="F1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5823,13 +5820,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5868,10 +5865,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
         <v>370</v>
-      </c>
-      <c r="B5" t="s">
-        <v>371</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5891,7 +5888,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5908,7 +5905,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -5925,7 +5922,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
         <v>180</v>
@@ -5939,10 +5936,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -5956,10 +5953,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>378</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -5973,10 +5970,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
         <v>379</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5996,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
@@ -6013,7 +6010,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -6030,7 +6027,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
         <v>180</v>
@@ -6044,10 +6041,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
         <v>384</v>
-      </c>
-      <c r="B15" t="s">
-        <v>385</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -6067,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -6084,7 +6081,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -6101,7 +6098,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -6115,10 +6112,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -6135,7 +6132,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -6152,7 +6149,7 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -6183,10 +6180,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
         <v>392</v>
-      </c>
-      <c r="B23" t="s">
-        <v>393</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" t="s">
         <v>394</v>
-      </c>
-      <c r="B24" t="s">
-        <v>395</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -6220,7 +6217,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -6285,10 +6282,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
         <v>397</v>
-      </c>
-      <c r="B29" t="s">
-        <v>398</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -6305,10 +6302,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" t="s">
         <v>399</v>
-      </c>
-      <c r="B30" t="s">
-        <v>400</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -6325,7 +6322,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -6339,10 +6336,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" t="s">
         <v>402</v>
-      </c>
-      <c r="B32" t="s">
-        <v>403</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -6405,10 +6402,10 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6447,10 +6444,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
         <v>405</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,10 +6458,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6483,10 +6480,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6497,10 +6494,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
         <v>440</v>
-      </c>
-      <c r="B5" t="s">
-        <v>441</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6514,10 +6511,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" t="s">
         <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>443</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -6531,10 +6528,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" t="s">
-        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -6545,10 +6542,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" t="s">
         <v>446</v>
-      </c>
-      <c r="B8" t="s">
-        <v>447</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -6559,10 +6556,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
         <v>448</v>
-      </c>
-      <c r="B9" t="s">
-        <v>449</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -6576,10 +6573,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" t="s">
         <v>450</v>
-      </c>
-      <c r="B10" t="s">
-        <v>451</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -6641,10 +6638,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
         <v>405</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6655,10 +6652,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6677,10 +6674,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6697,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -6711,7 +6708,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6725,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -6736,10 +6733,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
         <v>375</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -6750,10 +6747,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
         <v>377</v>
-      </c>
-      <c r="B9" t="s">
-        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -6764,10 +6761,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
         <v>379</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6784,7 +6781,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -6798,7 +6795,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -6812,7 +6809,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -6823,10 +6820,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" t="s">
         <v>407</v>
-      </c>
-      <c r="B14" t="s">
-        <v>408</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -6843,7 +6840,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -6857,7 +6854,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
         <v>180</v>
@@ -6896,10 +6893,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" t="s">
         <v>411</v>
-      </c>
-      <c r="B19" t="s">
-        <v>412</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6916,7 +6913,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -6930,7 +6927,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -6944,7 +6941,7 @@
         <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -6958,7 +6955,7 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -6969,10 +6966,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" t="s">
         <v>417</v>
-      </c>
-      <c r="B24" t="s">
-        <v>418</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -6989,7 +6986,7 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -7059,7 +7056,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -7073,7 +7070,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -7087,7 +7084,7 @@
         <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -7098,10 +7095,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" t="s">
         <v>423</v>
-      </c>
-      <c r="B33" t="s">
-        <v>424</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -7132,7 +7129,7 @@
         <v>191</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -7143,10 +7140,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B36" t="s">
         <v>426</v>
-      </c>
-      <c r="B36" t="s">
-        <v>427</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -7194,10 +7191,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" t="s">
         <v>428</v>
-      </c>
-      <c r="E1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,10 +7205,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7230,10 +7227,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7250,7 +7247,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -7264,7 +7261,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7278,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -7289,10 +7286,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
         <v>375</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -7303,10 +7300,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
         <v>377</v>
-      </c>
-      <c r="B9" t="s">
-        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -7317,10 +7314,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
         <v>379</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -7337,7 +7334,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -7351,7 +7348,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -7365,7 +7362,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -7376,10 +7373,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" t="s">
         <v>384</v>
-      </c>
-      <c r="B14" t="s">
-        <v>385</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -7396,7 +7393,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -7410,7 +7407,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -7421,10 +7418,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -7438,7 +7435,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -7452,7 +7449,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -7463,10 +7460,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" t="s">
-        <v>408</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -7483,7 +7480,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -7497,7 +7494,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -7606,10 +7603,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
         <v>432</v>
-      </c>
-      <c r="B30" t="s">
-        <v>433</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -7623,7 +7620,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -7668,7 +7665,7 @@
         <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -7679,10 +7676,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" t="s">
         <v>435</v>
-      </c>
-      <c r="B35" t="s">
-        <v>436</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -7693,7 +7690,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -7707,10 +7704,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
         <v>426</v>
-      </c>
-      <c r="B37" t="s">
-        <v>427</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -7800,13 +7797,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>368</v>
-      </c>
-      <c r="F1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7817,13 +7814,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7862,10 +7859,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
         <v>370</v>
-      </c>
-      <c r="B5" t="s">
-        <v>371</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7885,7 +7882,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
         <v>180</v>
@@ -7902,7 +7899,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -7919,7 +7916,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -7933,10 +7930,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -7950,10 +7947,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>378</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -7967,10 +7964,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
         <v>379</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7990,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
@@ -8007,7 +8004,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -8024,7 +8021,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
         <v>180</v>
@@ -8038,10 +8035,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
         <v>384</v>
-      </c>
-      <c r="B15" t="s">
-        <v>385</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -8061,7 +8058,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -8078,7 +8075,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -8095,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -8109,10 +8106,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -8129,7 +8126,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -8146,7 +8143,7 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -8177,10 +8174,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
         <v>392</v>
-      </c>
-      <c r="B23" t="s">
-        <v>393</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -8194,10 +8191,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" t="s">
         <v>394</v>
-      </c>
-      <c r="B24" t="s">
-        <v>395</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -8214,7 +8211,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -8279,10 +8276,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
         <v>397</v>
-      </c>
-      <c r="B29" t="s">
-        <v>398</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -8299,10 +8296,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" t="s">
         <v>399</v>
-      </c>
-      <c r="B30" t="s">
-        <v>400</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -8319,7 +8316,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -8333,10 +8330,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" t="s">
         <v>402</v>
-      </c>
-      <c r="B32" t="s">
-        <v>403</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -8399,10 +8396,10 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -8441,16 +8438,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
         <v>351</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>352</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>353</v>
-      </c>
-      <c r="G1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8461,16 +8458,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,10 +8492,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
         <v>355</v>
-      </c>
-      <c r="B4" t="s">
-        <v>356</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -8515,10 +8512,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
         <v>308</v>
-      </c>
-      <c r="B5" t="s">
-        <v>309</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8538,10 +8535,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" t="s">
         <v>357</v>
-      </c>
-      <c r="B6" t="s">
-        <v>358</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8561,10 +8558,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
         <v>310</v>
-      </c>
-      <c r="B7" t="s">
-        <v>311</v>
       </c>
       <c r="D7" t="s">
         <v>180</v>
@@ -8581,10 +8578,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
         <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
       </c>
       <c r="D8" t="s">
         <v>180</v>
@@ -8601,10 +8598,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
         <v>314</v>
-      </c>
-      <c r="B9" t="s">
-        <v>315</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
         <v>359</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8650,7 +8647,7 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
         <v>180</v>
@@ -8667,10 +8664,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
         <v>319</v>
-      </c>
-      <c r="B12" t="s">
-        <v>320</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
@@ -8687,10 +8684,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" t="s">
         <v>321</v>
-      </c>
-      <c r="B13" t="s">
-        <v>322</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -8707,10 +8704,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
         <v>345</v>
-      </c>
-      <c r="B14" t="s">
-        <v>346</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -8727,10 +8724,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
         <v>347</v>
-      </c>
-      <c r="B15" t="s">
-        <v>348</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -8750,10 +8747,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
         <v>349</v>
-      </c>
-      <c r="B16" t="s">
-        <v>350</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -8773,10 +8770,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
         <v>361</v>
-      </c>
-      <c r="B17" t="s">
-        <v>362</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -8796,10 +8793,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" t="s">
         <v>325</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
       </c>
       <c r="D18" t="s">
         <v>180</v>
@@ -8816,10 +8813,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" t="s">
         <v>327</v>
-      </c>
-      <c r="B19" t="s">
-        <v>328</v>
       </c>
       <c r="D19" t="s">
         <v>180</v>
@@ -8836,10 +8833,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" t="s">
         <v>329</v>
-      </c>
-      <c r="B20" t="s">
-        <v>330</v>
       </c>
       <c r="D20" t="s">
         <v>180</v>
@@ -8856,10 +8853,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" t="s">
         <v>331</v>
-      </c>
-      <c r="B21" t="s">
-        <v>332</v>
       </c>
       <c r="D21" t="s">
         <v>180</v>
@@ -8876,10 +8873,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" t="s">
         <v>363</v>
-      </c>
-      <c r="B22" t="s">
-        <v>364</v>
       </c>
       <c r="D22" t="s">
         <v>180</v>
@@ -8896,16 +8893,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" t="s">
         <v>365</v>
-      </c>
-      <c r="B23" t="s">
-        <v>366</v>
       </c>
       <c r="C23">
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -8973,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8990,7 +8987,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9012,13 +9009,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>308</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -9029,13 +9026,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>310</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -9046,13 +9043,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>312</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>313</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -9063,13 +9060,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>315</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -9086,7 +9083,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -9097,13 +9094,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -9114,13 +9111,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>322</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -9131,13 +9128,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>345</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>346</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -9148,13 +9145,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>348</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -9165,13 +9162,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>349</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>350</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -9182,13 +9179,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>325</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>326</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -9199,13 +9196,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>327</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>328</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -9216,13 +9213,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>329</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>330</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -9233,13 +9230,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>331</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>332</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -9250,13 +9247,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>333</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>334</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -9267,13 +9264,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>339</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>340</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -9284,13 +9281,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>341</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>342</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -9313,7 +9310,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -9352,13 +9349,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
         <v>305</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>306</v>
-      </c>
-      <c r="F1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9369,13 +9366,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9397,10 +9394,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" t="s">
-        <v>309</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -9414,10 +9411,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" t="s">
         <v>310</v>
-      </c>
-      <c r="B5" t="s">
-        <v>311</v>
       </c>
       <c r="D5" t="s">
         <v>180</v>
@@ -9431,10 +9428,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" t="s">
         <v>312</v>
-      </c>
-      <c r="B6" t="s">
-        <v>313</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -9448,10 +9445,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" t="s">
         <v>314</v>
-      </c>
-      <c r="B7" t="s">
-        <v>315</v>
       </c>
       <c r="D7" t="s">
         <v>180</v>
@@ -9465,10 +9462,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
         <v>316</v>
-      </c>
-      <c r="B8" t="s">
-        <v>317</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -9485,7 +9482,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -9499,10 +9496,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>320</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -9516,10 +9513,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" t="s">
         <v>321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>322</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -9533,10 +9530,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
         <v>323</v>
-      </c>
-      <c r="B12" t="s">
-        <v>324</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -9550,10 +9547,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
         <v>325</v>
-      </c>
-      <c r="B13" t="s">
-        <v>326</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -9567,10 +9564,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" t="s">
         <v>327</v>
-      </c>
-      <c r="B14" t="s">
-        <v>328</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -9584,10 +9581,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
         <v>329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>330</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -9601,10 +9598,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" t="s">
         <v>331</v>
-      </c>
-      <c r="B16" t="s">
-        <v>332</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -9618,10 +9615,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
         <v>333</v>
-      </c>
-      <c r="B17" t="s">
-        <v>334</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -9635,10 +9632,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
         <v>335</v>
-      </c>
-      <c r="B18" t="s">
-        <v>336</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -9652,10 +9649,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
         <v>337</v>
-      </c>
-      <c r="B19" t="s">
-        <v>338</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -9669,10 +9666,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
         <v>339</v>
-      </c>
-      <c r="B20" t="s">
-        <v>340</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -9686,10 +9683,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
         <v>341</v>
-      </c>
-      <c r="B21" t="s">
-        <v>342</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -9703,10 +9700,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22">
         <v>36</v>
@@ -9780,10 +9777,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2" t="s">
         <v>588</v>
-      </c>
-      <c r="F2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9803,7 +9800,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9848,16 +9845,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>583</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>584</v>
-      </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -9868,7 +9865,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -9968,13 +9965,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>590</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>591</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -9988,13 +9985,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>586</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>587</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -10088,16 +10085,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>592</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>593</v>
-      </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -10148,13 +10145,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>518</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>519</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -10188,13 +10185,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>522</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>523</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -10228,13 +10225,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>530</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>531</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -10248,16 +10245,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>594</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>595</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>596</v>
-      </c>
-      <c r="D26" t="s">
-        <v>597</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -10268,7 +10265,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -10288,13 +10285,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>599</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>600</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -10354,7 +10351,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -10394,7 +10391,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -10428,13 +10425,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>601</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>602</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -10448,13 +10445,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>281</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -10542,7 +10539,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10553,7 +10550,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10569,10 +10566,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
         <v>293</v>
-      </c>
-      <c r="B4" t="s">
-        <v>294</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10627,10 +10624,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
         <v>295</v>
-      </c>
-      <c r="B9" t="s">
-        <v>296</v>
       </c>
       <c r="D9" t="s">
         <v>180</v>
@@ -10638,10 +10635,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
         <v>297</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -10652,7 +10649,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -10696,10 +10693,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" t="s">
         <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -10710,7 +10707,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -10776,10 +10773,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" t="s">
         <v>303</v>
-      </c>
-      <c r="B22" t="s">
-        <v>304</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -10790,10 +10787,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" t="s">
         <v>281</v>
-      </c>
-      <c r="B23" t="s">
-        <v>282</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -10849,13 +10846,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" t="s">
         <v>287</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>288</v>
-      </c>
-      <c r="F1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11308,10 +11305,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" t="s">
         <v>281</v>
-      </c>
-      <c r="B28" t="s">
-        <v>282</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -11328,10 +11325,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s">
         <v>283</v>
-      </c>
-      <c r="B29" t="s">
-        <v>284</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -11348,10 +11345,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
         <v>290</v>
-      </c>
-      <c r="B30" t="s">
-        <v>291</v>
       </c>
       <c r="C30">
         <v>3327</v>
@@ -11405,10 +11402,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
         <v>276</v>
-      </c>
-      <c r="F1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11439,10 +11436,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11456,10 +11453,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11473,10 +11470,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11490,10 +11487,10 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11507,10 +11504,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
         <v>278</v>
-      </c>
-      <c r="F7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11524,10 +11521,10 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11541,10 +11538,10 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11558,7 +11555,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -11578,7 +11575,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11595,7 +11592,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11609,21 +11606,21 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>281</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>282</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -11637,22 +11634,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>283</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>284</v>
-      </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,10 +11663,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" t="s">
         <v>285</v>
-      </c>
-      <c r="F16" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -11708,16 +11705,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" t="s">
         <v>272</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>273</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>274</v>
-      </c>
-      <c r="G1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11728,16 +11725,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11748,16 +11745,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12179,16 +12176,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
         <v>268</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>269</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>270</v>
-      </c>
-      <c r="G1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12199,16 +12196,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12219,16 +12216,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12550,16 +12547,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
         <v>264</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>266</v>
-      </c>
-      <c r="G1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12570,16 +12567,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12590,16 +12587,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13053,16 +13050,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
         <v>259</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>261</v>
-      </c>
-      <c r="G1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13073,16 +13070,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13093,16 +13090,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13444,16 +13441,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" t="s">
         <v>248</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>250</v>
-      </c>
-      <c r="G1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13464,16 +13461,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13661,10 +13658,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
         <v>253</v>
-      </c>
-      <c r="B12" t="s">
-        <v>254</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -13701,10 +13698,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
         <v>255</v>
-      </c>
-      <c r="B14" t="s">
-        <v>256</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -13721,10 +13718,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
         <v>257</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -13776,8 +13773,8 @@
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13798,7 +13795,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
@@ -13972,10 +13969,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -13993,10 +13990,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -14014,10 +14011,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -14077,10 +14074,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -14498,13 +14495,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" t="s">
         <v>580</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>581</v>
-      </c>
-      <c r="G2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14578,13 +14575,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>583</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>584</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -14601,7 +14598,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -14693,13 +14690,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>587</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -14820,13 +14817,13 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14843,13 +14840,13 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -14860,7 +14857,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -14900,13 +14897,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>281</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -16956,7 +16953,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
@@ -16964,7 +16961,7 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -17168,10 +17165,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -17195,10 +17192,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -17222,10 +17219,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -18261,7 +18258,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>164</v>
@@ -18965,10 +18962,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" t="s">
         <v>562</v>
-      </c>
-      <c r="E1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -18979,10 +18976,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -18993,18 +18990,18 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" t="s">
         <v>487</v>
-      </c>
-      <c r="B4" t="s">
-        <v>488</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -19015,7 +19012,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -19029,38 +19026,38 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" t="s">
         <v>564</v>
       </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" t="s">
         <v>566</v>
       </c>
-      <c r="B7" t="s">
-        <v>567</v>
-      </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" t="s">
         <v>496</v>
-      </c>
-      <c r="B8" t="s">
-        <v>497</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -19071,7 +19068,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -19085,66 +19082,66 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" t="s">
         <v>501</v>
       </c>
-      <c r="B10" t="s">
-        <v>502</v>
-      </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" t="s">
         <v>568</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>569</v>
       </c>
-      <c r="D11" t="s">
-        <v>570</v>
-      </c>
       <c r="E11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" t="s">
         <v>571</v>
       </c>
-      <c r="B12" t="s">
-        <v>572</v>
-      </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B13" t="s">
         <v>573</v>
       </c>
-      <c r="B13" t="s">
-        <v>574</v>
-      </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" t="s">
-        <v>504</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -19158,7 +19155,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -19172,66 +19169,66 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" t="s">
         <v>506</v>
       </c>
-      <c r="B16" t="s">
-        <v>507</v>
-      </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" t="s">
         <v>508</v>
       </c>
-      <c r="B17" t="s">
-        <v>509</v>
-      </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" t="s">
         <v>510</v>
       </c>
-      <c r="B18" t="s">
-        <v>511</v>
-      </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" t="s">
         <v>512</v>
       </c>
-      <c r="B19" t="s">
-        <v>513</v>
-      </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" t="s">
         <v>514</v>
-      </c>
-      <c r="B20" t="s">
-        <v>515</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -19245,94 +19242,94 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21" t="s">
         <v>516</v>
       </c>
-      <c r="B21" t="s">
-        <v>517</v>
-      </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" t="s">
         <v>518</v>
       </c>
-      <c r="B22" t="s">
-        <v>519</v>
-      </c>
       <c r="D22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B23" t="s">
         <v>520</v>
       </c>
-      <c r="B23" t="s">
-        <v>521</v>
-      </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B24" t="s">
         <v>522</v>
       </c>
-      <c r="B24" t="s">
-        <v>523</v>
-      </c>
       <c r="D24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B25" t="s">
         <v>528</v>
       </c>
-      <c r="B25" t="s">
-        <v>529</v>
-      </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" t="s">
         <v>530</v>
       </c>
-      <c r="B26" t="s">
-        <v>531</v>
-      </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" t="s">
         <v>407</v>
-      </c>
-      <c r="B27" t="s">
-        <v>408</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -19343,38 +19340,38 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>574</v>
+      </c>
+      <c r="B28" t="s">
         <v>575</v>
       </c>
-      <c r="B28" t="s">
-        <v>576</v>
-      </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" t="s">
         <v>577</v>
       </c>
-      <c r="B29" t="s">
-        <v>578</v>
-      </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" t="s">
         <v>540</v>
-      </c>
-      <c r="B30" t="s">
-        <v>541</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -19388,47 +19385,47 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" t="s">
         <v>477</v>
       </c>
-      <c r="B31" t="s">
-        <v>478</v>
-      </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>474</v>
+      </c>
+      <c r="B32" t="s">
         <v>475</v>
       </c>
-      <c r="B32" t="s">
-        <v>476</v>
-      </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" t="s">
         <v>543</v>
       </c>
-      <c r="B33" t="s">
-        <v>544</v>
-      </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -19442,10 +19439,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -19456,10 +19453,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -20018,7 +20015,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -21223,7 +21220,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
@@ -21231,7 +21228,7 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -21437,10 +21434,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -21464,10 +21461,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -21599,10 +21596,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -23992,7 +23989,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -24001,7 +23998,7 @@
         <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J1" t="s">
         <v>177</v>
@@ -24021,7 +24018,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -24030,7 +24027,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -24218,7 +24215,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -24270,13 +24267,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>467</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -24346,7 +24343,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -24378,7 +24375,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -24395,13 +24392,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>556</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>557</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -25815,7 +25812,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
@@ -26733,7 +26730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE79472-F4EF-4B7B-8A11-D372DDD9AEDB}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -26741,40 +26738,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" t="s">
+        <v>634</v>
+      </c>
+      <c r="J1" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" t="s">
         <v>637</v>
       </c>
-      <c r="B1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H1" t="s">
-        <v>634</v>
-      </c>
-      <c r="I1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J1" t="s">
-        <v>636</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>638</v>
-      </c>
-      <c r="L1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -26787,10 +26784,10 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -26798,10 +26795,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -26809,10 +26806,10 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -26820,37 +26817,37 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -26858,37 +26855,37 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -26896,34 +26893,34 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -26958,13 +26955,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
         <v>551</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>552</v>
-      </c>
-      <c r="F1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -27071,10 +27068,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
         <v>554</v>
-      </c>
-      <c r="B8" t="s">
-        <v>555</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -27122,10 +27119,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
         <v>466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>467</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -27168,7 +27165,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -27188,7 +27185,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -27199,10 +27196,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
         <v>556</v>
-      </c>
-      <c r="B15" t="s">
-        <v>557</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -27233,10 +27230,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C17">
         <v>3025</v>
@@ -27304,10 +27301,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" t="s">
         <v>485</v>
-      </c>
-      <c r="E2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -27321,10 +27318,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -27338,7 +27335,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -27346,10 +27343,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" t="s">
         <v>487</v>
-      </c>
-      <c r="B5" t="s">
-        <v>488</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -27363,7 +27360,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -27380,16 +27377,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" t="s">
         <v>490</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>491</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>492</v>
       </c>
       <c r="E7" t="s">
         <v>180</v>
@@ -27397,16 +27394,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" t="s">
         <v>493</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>494</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>495</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -27414,10 +27411,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" t="s">
         <v>496</v>
-      </c>
-      <c r="B9" t="s">
-        <v>497</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -27431,7 +27428,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -27448,16 +27445,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" t="s">
         <v>499</v>
       </c>
-      <c r="B11" t="s">
-        <v>500</v>
-      </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E11" t="s">
         <v>180</v>
@@ -27465,16 +27462,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" t="s">
         <v>501</v>
-      </c>
-      <c r="B12" t="s">
-        <v>502</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -27482,10 +27479,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" t="s">
         <v>503</v>
-      </c>
-      <c r="B13" t="s">
-        <v>504</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -27499,7 +27496,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -27516,16 +27513,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15" t="s">
         <v>506</v>
       </c>
-      <c r="B15" t="s">
-        <v>507</v>
-      </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -27533,16 +27530,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
         <v>508</v>
       </c>
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
         <v>180</v>
@@ -27550,16 +27547,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>509</v>
+      </c>
+      <c r="B17" t="s">
         <v>510</v>
       </c>
-      <c r="B17" t="s">
-        <v>511</v>
-      </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -27567,16 +27564,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" t="s">
         <v>512</v>
       </c>
-      <c r="B18" t="s">
-        <v>513</v>
-      </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
@@ -27584,10 +27581,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" t="s">
         <v>514</v>
-      </c>
-      <c r="B19" t="s">
-        <v>515</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -27601,16 +27598,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B20" t="s">
         <v>516</v>
       </c>
-      <c r="B20" t="s">
-        <v>517</v>
-      </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -27618,16 +27615,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" t="s">
         <v>518</v>
       </c>
-      <c r="B21" t="s">
-        <v>519</v>
-      </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E21" t="s">
         <v>180</v>
@@ -27635,16 +27632,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" t="s">
         <v>520</v>
       </c>
-      <c r="B22" t="s">
-        <v>521</v>
-      </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -27652,16 +27649,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B23" t="s">
         <v>522</v>
       </c>
-      <c r="B23" t="s">
-        <v>523</v>
-      </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -27669,16 +27666,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B24" t="s">
         <v>524</v>
       </c>
-      <c r="B24" t="s">
-        <v>525</v>
-      </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -27686,16 +27683,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
         <v>526</v>
       </c>
-      <c r="B25" t="s">
-        <v>527</v>
-      </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
         <v>180</v>
@@ -27703,16 +27700,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26" t="s">
         <v>528</v>
       </c>
-      <c r="B26" t="s">
-        <v>529</v>
-      </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -27720,16 +27717,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" t="s">
         <v>530</v>
       </c>
-      <c r="B27" t="s">
-        <v>531</v>
-      </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E27" t="s">
         <v>180</v>
@@ -27737,10 +27734,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" t="s">
         <v>407</v>
-      </c>
-      <c r="B28" t="s">
-        <v>408</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -27754,16 +27751,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" t="s">
         <v>532</v>
       </c>
-      <c r="B29" t="s">
-        <v>533</v>
-      </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -27771,7 +27768,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -27788,16 +27785,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>534</v>
+      </c>
+      <c r="B31" t="s">
         <v>535</v>
       </c>
-      <c r="B31" t="s">
-        <v>536</v>
-      </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -27805,7 +27802,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -27822,16 +27819,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E33" t="s">
         <v>180</v>
@@ -27839,7 +27836,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -27856,13 +27853,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>539</v>
+      </c>
+      <c r="B35" t="s">
         <v>540</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>541</v>
-      </c>
-      <c r="C35" t="s">
-        <v>542</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -27873,16 +27870,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>476</v>
+      </c>
+      <c r="B36" t="s">
         <v>477</v>
       </c>
-      <c r="B36" t="s">
-        <v>478</v>
-      </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -27890,16 +27887,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B37" t="s">
         <v>475</v>
       </c>
-      <c r="B37" t="s">
-        <v>476</v>
-      </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E37" t="s">
         <v>180</v>
@@ -27907,16 +27904,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>542</v>
+      </c>
+      <c r="B38" t="s">
         <v>543</v>
       </c>
-      <c r="B38" t="s">
-        <v>544</v>
-      </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
@@ -27924,16 +27921,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
         <v>545</v>
       </c>
-      <c r="B39" t="s">
-        <v>546</v>
-      </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
@@ -27941,7 +27938,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -27958,10 +27955,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>547</v>
+      </c>
+      <c r="B41" t="s">
         <v>548</v>
-      </c>
-      <c r="B41" t="s">
-        <v>549</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -27984,7 +27981,7 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -28046,10 +28043,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" t="s">
         <v>462</v>
-      </c>
-      <c r="E2" t="s">
-        <v>463</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -28066,10 +28063,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -28163,7 +28160,7 @@
         <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -28200,7 +28197,7 @@
         <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -28237,10 +28234,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
         <v>466</v>
-      </c>
-      <c r="B12" t="s">
-        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -28317,10 +28314,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" t="s">
         <v>468</v>
-      </c>
-      <c r="B16" t="s">
-        <v>469</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -28337,10 +28334,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" t="s">
         <v>470</v>
-      </c>
-      <c r="B17" t="s">
-        <v>471</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -28357,13 +28354,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
         <v>472</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>473</v>
-      </c>
-      <c r="C18" t="s">
-        <v>474</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -28397,10 +28394,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" t="s">
         <v>475</v>
-      </c>
-      <c r="B20" t="s">
-        <v>476</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -28417,10 +28414,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" t="s">
         <v>477</v>
-      </c>
-      <c r="B21" t="s">
-        <v>478</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -28440,7 +28437,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -28460,7 +28457,7 @@
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -28480,7 +28477,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -28500,7 +28497,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -28537,10 +28534,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="s">
         <v>483</v>
-      </c>
-      <c r="B27" t="s">
-        <v>484</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -28591,10 +28588,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" t="s">
         <v>460</v>
-      </c>
-      <c r="E1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -28605,10 +28602,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -28627,10 +28624,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -28647,7 +28644,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -28661,7 +28658,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -28675,7 +28672,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -28686,10 +28683,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
         <v>375</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -28700,10 +28697,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
         <v>377</v>
-      </c>
-      <c r="B9" t="s">
-        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -28714,10 +28711,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
         <v>379</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -28734,7 +28731,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -28748,7 +28745,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -28762,7 +28759,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -28773,10 +28770,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" t="s">
         <v>384</v>
-      </c>
-      <c r="B14" t="s">
-        <v>385</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -28793,7 +28790,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -28807,7 +28804,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -28818,10 +28815,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -28835,7 +28832,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -28849,7 +28846,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -28860,10 +28857,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" t="s">
-        <v>408</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -28880,7 +28877,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -28894,7 +28891,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -29003,10 +29000,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
         <v>432</v>
-      </c>
-      <c r="B30" t="s">
-        <v>433</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -29020,7 +29017,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -29065,7 +29062,7 @@
         <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -29076,10 +29073,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" t="s">
         <v>435</v>
-      </c>
-      <c r="B35" t="s">
-        <v>436</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -29090,7 +29087,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -29104,10 +29101,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
         <v>426</v>
-      </c>
-      <c r="B37" t="s">
-        <v>427</v>
       </c>
       <c r="C37">
         <v>5</v>
